--- a/evaluaciones.xlsx
+++ b/evaluaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EVELIO MUÑOZ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6305491</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/evaluaciones.xlsx
+++ b/evaluaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,18 +458,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVELIO MUÑOZ</t>
+          <t>DARWIN MOISES ABREU DE ABREU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6305491</v>
+        <v>20562077</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t xml:space="preserve">ANALISTA DE RECLUTAMIENTO Y SELECCIÓN </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GELDI JOSEFINA BADILLA PARRA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14141221</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPERADOR DE CALL CENTER</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GERALDINE DEL CARMEN BASTIDAS HURTADO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25225862</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COORDINADORA ADMINISTRATIVA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GUSTAVO BOADA LUGO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25959345</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>COORDINADOR DE DATOS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HARRYS JOSE GUEVARA CAMEJO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13612625</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TECNICO EN SSL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JERRY ALBERTO REYES MORENO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11916680</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>CHOFER</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS BARRIOS TORRES</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22281682</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TECNICO EN TICs</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NINOSKKA MIROXLAVA BOMPART SANCHEZ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11204493</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANALISTA DE NOMINA </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NORBELIS COROMOTO MEDINA FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19787169</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPERADOR DE CALL CENTER</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ROBINSON JOSE NAVAS GUERRA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14934221</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANALISTA DE NOMINA </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RONALD AGUSTIN REYES MORENO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15208536</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA RRHH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RUBBY YESENIA FRANCO VIERA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24543860</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA RRHH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TEODORO JOSE URBINA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14744379</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MENSAJERO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YOHANNA MARIA MONTES SUAREZ</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12763390</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COORDINADOR DE NOMINA </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>

--- a/evaluaciones.xlsx
+++ b/evaluaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,280 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DARWIN MOISES ABREU DE ABREU</t>
+          <t>AURA PATRICIA OSORIO HURTADO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20562077</v>
+        <v>14728659</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANALISTA DE RECLUTAMIENTO Y SELECCIÓN </t>
+          <t>ADMINISTRACIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GELDI JOSEFINA BADILLA PARRA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>14141221</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OPERADOR DE CALL CENTER</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>85,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GERALDINE DEL CARMEN BASTIDAS HURTADO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>25225862</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>COORDINADORA ADMINISTRATIVA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>81,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GUSTAVO BOADA LUGO</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25959345</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>COORDINADOR DE DATOS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>96,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HARRYS JOSE GUEVARA CAMEJO</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13612625</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TECNICO EN SSL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JERRY ALBERTO REYES MORENO</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11916680</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CHOFER</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS BARRIOS TORRES</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22281682</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TECNICO EN TICs</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NINOSKKA MIROXLAVA BOMPART SANCHEZ</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11204493</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANALISTA DE NOMINA </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>85,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NORBELIS COROMOTO MEDINA FERNANDEZ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>19787169</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>OPERADOR DE CALL CENTER</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>85,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ROBINSON JOSE NAVAS GUERRA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14934221</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANALISTA DE NOMINA </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>81,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RONALD AGUSTIN REYES MORENO</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15208536</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ESPECIALISTA RRHH</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RUBBY YESENIA FRANCO VIERA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24543860</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ESPECIALISTA RRHH</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TEODORO JOSE URBINA SANCHEZ</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14744379</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MENSAJERO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>YOHANNA MARIA MONTES SUAREZ</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12763390</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COORDINADOR DE NOMINA </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100,0%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>

--- a/evaluaciones.xlsx
+++ b/evaluaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,2987 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DESEMPEÑO DEL MES</t>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SUPERVISOR INMEDIATO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cumplimiento_horario</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>discrecion_politicas</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>clima_organizacional</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cumplimiento_actividades</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado final</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AURA PATRICIA OSORIO HURTADO</t>
+          <t>ABREU DE ABREU DARWIN MOISES</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14728659</v>
+        <v>20562077</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADMINISTRACIÓN</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>DABREU@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>91,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANGEL LOBATON</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9276575</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AYUDANTE DE LOGISTICA / VIGILANTE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ALOBATON@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>83,0%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>83,0%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANYELO ANTONIO MENDEZ QUINTERO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18749981</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AMENDEZ@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BARRIOS TORRES JUAN CARLOS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22281682</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TECNICO EN TICS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JBARRIOS@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BILIS EUGENIO SANCHEZ CORREA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16967929</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SERVICIOS GENERALES</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BSANCHEZ@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>YADELMI OLIVETTI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CALOS MARCANO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11931394</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CMARCANO@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CARLOS CELESTINO REY GONZALEZ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13112426</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CREY@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHARLES COLINA ORTEGA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12761587</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>COORDINADOR DE PATIO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CCOLINA@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DARWIN PACHECO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30598261</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPERADOR DE CALL CENTER</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DPACHECO@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EDUARDO TROCEL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18363164</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ETROCEL@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EMILY VILLALTA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22045734</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INGENIERO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EVILLALTA@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>YADELMI OLIVETTI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>75,0%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ENRIQUE RAMOS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17223694</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ERAMOS@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ESTEBAN ALEJANDRO SAINT PASTEUR</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27238115</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ESAINT@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GENESIS LUGO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29611967</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>COMMUNITY MANAGER</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GLUGO@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GONZALEZ GERARD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24757363</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GGONZALEZ@GLOBAL.COM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GUELI DIAZ ROSARIO</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8757215</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GROSARIO@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GUEVARA  HARRYS JOSE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13612625</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TECNICO EN SSL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HGUEVARA@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IGDOMAR ENRIQUE MEJIA MONTILLA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21256472</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TECNICO DE PROCURA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>IMEJIA@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>YADELMI OLIVETTI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JAN CARLOS FERNÁNDEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16111269</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>JFERNANDEZ@GALPEGO.COM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ANTONIO CAÑIZALES</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JERRY REYES MORENO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11916680</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>JREYES@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JHONNY JOSE GOMEZ SULBARAN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15574076</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JGOMEZ@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>JHONNY PEREZ</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16227330</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JPEREZ@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JOSE GREGORIO TOVAR AZUAJE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26429831</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VIGILANTE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JTOVAR@GALPEGO.COM</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ANTONIO CAÑIZALES</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LEIDDY PEREZ</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20410842</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>INGENIERO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LPEREZ@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>YADELMI OLIVETTI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13871530</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COORDINADOR DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LMEDINA@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IVAN SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LISET LARA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>17476581</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ASISTENTE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LLARA@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IVAN SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LUIS ANGEL ESPINOZA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>17718634</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LESPINOZA@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LUIS OCHOA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15873930</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COORD. DE TRANSPORTE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LOCHOA@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MARIA DELGADO</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5977672</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MDELGADO@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IVAN SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MEDINA FERNANDEZ NORBELIS COROMOTO</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>19787169</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OPERADOR DE CALL CENTER</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NMEDINA@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MILEIDI VICTORA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>23108085</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SUPLENTE ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MVICTORA@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MONTES SUAREZ YOHANNA MARIA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12763390</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>COORDINADORA DE RRHH</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>YMONTES@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MORILLO RODRIGUEZ MAIKER ENRIQUE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13291899</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MMORILLO@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NELSIBETH HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>19133354</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>INGENIERO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NHERNANDEZ@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>YADELMI OLIVETTI</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>75,0%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NESTOR DANIEL HERNANDEZ AZUAJE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14518678</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NHERNANDEZ@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NINOSKKA MIROXLAVA BOMPART SANCHEZ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11204493</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ANALISTA DE NOMINA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NBOMPART@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>75,0%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PERNIA VERA WILMER JOSE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14680967</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ADMINISTRADOR</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>WPERNIA@GLOBAL.COM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>18026156</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>asesorfinanciero.grupo@gmail.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IVAN SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RAMON BASTIDAS</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>23846261</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AYUDANTE DE PATIO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>RBASTIDAS@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>REYES MORENO RONALD AGUSTIN</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>15208536</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>RREYES@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OMAR MELENDEZ</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RHONA MARIN</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>21115510</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>RMARIN@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ROBINSON JOSE NAVAS GUERRA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14934221</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ANALISTA DE NOMINA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>RNAVAS@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RODOLFO JOSE HERNANDEZ RIVERO</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7592574</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>VIGILANTE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RHERNANDEZ@GALPEGO.COM</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ANTONIO CAÑIZALES</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ROSSMARY NACARI OSORIO SILVA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>25455684</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ASISTENTE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ROSORIO@GALPEGO.COM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ANTONIO CAÑIZALES</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RUBBY FRANCO</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>24543860</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA RRHH</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>RFRANCO@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RUDDY FRANCO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>17719552</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>RFRANCO@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SANCHEZ FRANCISCO JAVIER</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23634958</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>JEFE DE OPERACIONES</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FSANCHEZ@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IVAN SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SANCHEZ RIVAS, ADANILES</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12375357</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ADMINISTRADOR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ASANCHEZ@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SANGUINO RODRIGUEZ, RICHARD JOSE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>15577754</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ANALISTA DE NOMINA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>RSANGUINO@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>FRANCISCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TORREALBA RONDON RAUL ADOLFO</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20093222</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>RTORREALBA@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>URBINA SANCHEZ TEODORO JOSE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14744379</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MENSAJERO MOTORIZADO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TJURBINA@SERVIPLUSVE.COM</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VEGAS OROCOPEY JEANCARLOS JOSE</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>18066960</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>JVEGAS@FERREGAL.COM</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>VICTOR YANTIR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15791589</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AYUDANTE DE PATIO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VYANTIR@FERREGAL.COM</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VINCENT YGNACIO LUGO GUERRO</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>23529731</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VLUGO@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VIRRIEL SILVA JOSE ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15875189</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>JVIRRIEL@GHALMACATRANSPORTE.COM</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WILLIAM HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13895721</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MENSAJERO MOTORIZADO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>WHERNANDEZ@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>LEONARDO MEDINA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>YEIXON ALEXANDER CARRERO</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>21001270</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CONTADOR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>YCARRERO@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>YETSIBI DURAN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>18130755</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>YDURAN@DAPRECA.COM</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OMAR MELENDEZ</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>YUSMELY RAMIREZ</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>16496869</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CONTADOR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>YRAMIREZ@GHALMACA.COM</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RAFAEL GALLARDO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>75,0%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>92,0%</t>
         </is>
       </c>
     </row>
